--- a/board.xlsx
+++ b/board.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Developing\CloveceNezlobSe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7874E934-2CD1-45C6-ADF0-4ACFE3B92191}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC338645-85AF-49EF-87D8-AF660D17A4A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="3870" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="7200" yWindow="3870" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -116,7 +116,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -153,6 +153,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -181,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -192,6 +198,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -505,11 +512,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,11 +524,11 @@
     <col min="1" max="13" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -558,8 +565,26 @@
       <c r="M5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P5">
+        <f>11*48</f>
+        <v>528</v>
+      </c>
+      <c r="Q5">
+        <v>10</v>
+      </c>
+      <c r="R5">
+        <f>P5+Q5</f>
+        <v>538</v>
+      </c>
+      <c r="S5">
+        <v>10</v>
+      </c>
+      <c r="T5">
+        <f>R5+S5</f>
+        <v>548</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -577,7 +602,7 @@
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
     </row>
-    <row r="7" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -595,7 +620,7 @@
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
     </row>
-    <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -609,7 +634,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -623,7 +648,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -661,7 +686,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -680,6 +705,7 @@
       <c r="F11" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="G11" s="10"/>
       <c r="H11" s="9" t="s">
         <v>1</v>
       </c>
@@ -696,7 +722,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -734,7 +760,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -748,7 +774,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -762,7 +788,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -780,7 +806,7 @@
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
     </row>
-    <row r="16" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="F16" s="3">
